--- a/Gantt Chart (Finished).xlsx
+++ b/Gantt Chart (Finished).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Year 2\COMP1597 - Digital Media Production\CW1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Year 2\COMP1597 - Digital Media Production\CW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBDD179-B36F-46E7-8D2E-1303FCAF5599}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936489A7-8F7A-4987-B254-6EB7F9504CDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -284,8 +284,8 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="ddd\,\ m/d/yyyy"/>
-    <numFmt numFmtId="168" formatCode="d"/>
-    <numFmt numFmtId="170" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="167" formatCode="d"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -657,13 +657,13 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -795,17 +795,25 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="168" fontId="7" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="0" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -817,25 +825,17 @@
     <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="2" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="10" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="7" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="9" borderId="2" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -854,7 +854,247 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="51">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1131,15 +1371,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="26"/>
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="totalRow" dxfId="24"/>
-      <tableStyleElement type="firstColumn" dxfId="23"/>
-      <tableStyleElement type="lastColumn" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="50"/>
+      <tableStyleElement type="headerRow" dxfId="49"/>
+      <tableStyleElement type="totalRow" dxfId="48"/>
+      <tableStyleElement type="firstColumn" dxfId="47"/>
+      <tableStyleElement type="lastColumn" dxfId="46"/>
+      <tableStyleElement type="firstRowStripe" dxfId="45"/>
+      <tableStyleElement type="secondRowStripe" dxfId="44"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="43"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="42"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1500,9 +1740,9 @@
   </sheetPr>
   <dimension ref="A1:GI41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R11" sqref="R11"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1547,297 +1787,297 @@
         <v>14</v>
       </c>
       <c r="B3" s="44"/>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="61">
+      <c r="D3" s="68"/>
+      <c r="E3" s="71">
         <v>43378</v>
       </c>
-      <c r="F3" s="61"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:190" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="62">
+      <c r="I4" s="64">
         <f>I5</f>
         <v>43374</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="62">
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="64">
         <f>P5</f>
         <v>43381</v>
       </c>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="62">
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="64">
         <f>W5</f>
         <v>43388</v>
       </c>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="63"/>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="64"/>
-      <c r="AD4" s="62">
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="64">
         <f>AD5</f>
         <v>43395</v>
       </c>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="63"/>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="64"/>
-      <c r="AK4" s="62">
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="64">
         <f>AK5</f>
         <v>43402</v>
       </c>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="63"/>
-      <c r="AQ4" s="64"/>
-      <c r="AR4" s="62">
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="64">
         <f>AR5</f>
         <v>43409</v>
       </c>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="63"/>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="64"/>
-      <c r="AY4" s="62">
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="65"/>
+      <c r="AU4" s="65"/>
+      <c r="AV4" s="65"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="64">
         <f>AY5</f>
         <v>43416</v>
       </c>
-      <c r="AZ4" s="63"/>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="63"/>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="64"/>
-      <c r="BF4" s="62">
+      <c r="AZ4" s="65"/>
+      <c r="BA4" s="65"/>
+      <c r="BB4" s="65"/>
+      <c r="BC4" s="65"/>
+      <c r="BD4" s="65"/>
+      <c r="BE4" s="66"/>
+      <c r="BF4" s="64">
         <f>BF5</f>
         <v>43423</v>
       </c>
-      <c r="BG4" s="63"/>
-      <c r="BH4" s="63"/>
-      <c r="BI4" s="63"/>
-      <c r="BJ4" s="63"/>
-      <c r="BK4" s="63"/>
-      <c r="BL4" s="64"/>
-      <c r="BM4" s="62">
+      <c r="BG4" s="65"/>
+      <c r="BH4" s="65"/>
+      <c r="BI4" s="65"/>
+      <c r="BJ4" s="65"/>
+      <c r="BK4" s="65"/>
+      <c r="BL4" s="66"/>
+      <c r="BM4" s="64">
         <f>BM5</f>
         <v>43430</v>
       </c>
-      <c r="BN4" s="63"/>
-      <c r="BO4" s="63"/>
-      <c r="BP4" s="63"/>
-      <c r="BQ4" s="63"/>
-      <c r="BR4" s="63"/>
-      <c r="BS4" s="64"/>
-      <c r="BT4" s="62">
+      <c r="BN4" s="65"/>
+      <c r="BO4" s="65"/>
+      <c r="BP4" s="65"/>
+      <c r="BQ4" s="65"/>
+      <c r="BR4" s="65"/>
+      <c r="BS4" s="66"/>
+      <c r="BT4" s="64">
         <f>BT5</f>
         <v>43437</v>
       </c>
-      <c r="BU4" s="63"/>
-      <c r="BV4" s="63"/>
-      <c r="BW4" s="63"/>
-      <c r="BX4" s="63"/>
-      <c r="BY4" s="63"/>
-      <c r="BZ4" s="64"/>
-      <c r="CA4" s="62">
+      <c r="BU4" s="65"/>
+      <c r="BV4" s="65"/>
+      <c r="BW4" s="65"/>
+      <c r="BX4" s="65"/>
+      <c r="BY4" s="65"/>
+      <c r="BZ4" s="66"/>
+      <c r="CA4" s="64">
         <f>CA5</f>
         <v>43444</v>
       </c>
-      <c r="CB4" s="63"/>
-      <c r="CC4" s="63"/>
-      <c r="CD4" s="63"/>
-      <c r="CE4" s="63"/>
-      <c r="CF4" s="63"/>
-      <c r="CG4" s="64"/>
-      <c r="CH4" s="62">
+      <c r="CB4" s="65"/>
+      <c r="CC4" s="65"/>
+      <c r="CD4" s="65"/>
+      <c r="CE4" s="65"/>
+      <c r="CF4" s="65"/>
+      <c r="CG4" s="66"/>
+      <c r="CH4" s="64">
         <f t="shared" ref="CH4" si="0">CH5</f>
         <v>43451</v>
       </c>
-      <c r="CI4" s="63"/>
-      <c r="CJ4" s="63"/>
-      <c r="CK4" s="63"/>
-      <c r="CL4" s="63"/>
-      <c r="CM4" s="63"/>
-      <c r="CN4" s="64"/>
-      <c r="CO4" s="62">
+      <c r="CI4" s="65"/>
+      <c r="CJ4" s="65"/>
+      <c r="CK4" s="65"/>
+      <c r="CL4" s="65"/>
+      <c r="CM4" s="65"/>
+      <c r="CN4" s="66"/>
+      <c r="CO4" s="64">
         <f t="shared" ref="CO4" si="1">CO5</f>
         <v>43458</v>
       </c>
-      <c r="CP4" s="63"/>
-      <c r="CQ4" s="63"/>
-      <c r="CR4" s="63"/>
-      <c r="CS4" s="63"/>
-      <c r="CT4" s="63"/>
-      <c r="CU4" s="64"/>
-      <c r="CV4" s="62">
+      <c r="CP4" s="65"/>
+      <c r="CQ4" s="65"/>
+      <c r="CR4" s="65"/>
+      <c r="CS4" s="65"/>
+      <c r="CT4" s="65"/>
+      <c r="CU4" s="66"/>
+      <c r="CV4" s="64">
         <f>CV5</f>
         <v>43465</v>
       </c>
-      <c r="CW4" s="63"/>
-      <c r="CX4" s="63"/>
-      <c r="CY4" s="63"/>
-      <c r="CZ4" s="63"/>
-      <c r="DA4" s="63"/>
-      <c r="DB4" s="64"/>
-      <c r="DC4" s="62">
+      <c r="CW4" s="65"/>
+      <c r="CX4" s="65"/>
+      <c r="CY4" s="65"/>
+      <c r="CZ4" s="65"/>
+      <c r="DA4" s="65"/>
+      <c r="DB4" s="66"/>
+      <c r="DC4" s="64">
         <f t="shared" ref="DC4" si="2">DC5</f>
         <v>43472</v>
       </c>
-      <c r="DD4" s="63"/>
-      <c r="DE4" s="63"/>
-      <c r="DF4" s="63"/>
-      <c r="DG4" s="63"/>
-      <c r="DH4" s="63"/>
-      <c r="DI4" s="64"/>
-      <c r="DJ4" s="62">
+      <c r="DD4" s="65"/>
+      <c r="DE4" s="65"/>
+      <c r="DF4" s="65"/>
+      <c r="DG4" s="65"/>
+      <c r="DH4" s="65"/>
+      <c r="DI4" s="66"/>
+      <c r="DJ4" s="64">
         <f t="shared" ref="DJ4" si="3">DJ5</f>
         <v>43479</v>
       </c>
-      <c r="DK4" s="63"/>
-      <c r="DL4" s="63"/>
-      <c r="DM4" s="63"/>
-      <c r="DN4" s="63"/>
-      <c r="DO4" s="63"/>
-      <c r="DP4" s="64"/>
-      <c r="DQ4" s="62">
+      <c r="DK4" s="65"/>
+      <c r="DL4" s="65"/>
+      <c r="DM4" s="65"/>
+      <c r="DN4" s="65"/>
+      <c r="DO4" s="65"/>
+      <c r="DP4" s="66"/>
+      <c r="DQ4" s="64">
         <f t="shared" ref="DQ4" si="4">DQ5</f>
         <v>43486</v>
       </c>
-      <c r="DR4" s="63"/>
-      <c r="DS4" s="63"/>
-      <c r="DT4" s="63"/>
-      <c r="DU4" s="63"/>
-      <c r="DV4" s="63"/>
-      <c r="DW4" s="64"/>
-      <c r="DX4" s="62">
+      <c r="DR4" s="65"/>
+      <c r="DS4" s="65"/>
+      <c r="DT4" s="65"/>
+      <c r="DU4" s="65"/>
+      <c r="DV4" s="65"/>
+      <c r="DW4" s="66"/>
+      <c r="DX4" s="64">
         <f t="shared" ref="DX4" si="5">DX5</f>
         <v>43493</v>
       </c>
-      <c r="DY4" s="63"/>
-      <c r="DZ4" s="63"/>
-      <c r="EA4" s="63"/>
-      <c r="EB4" s="63"/>
-      <c r="EC4" s="63"/>
-      <c r="ED4" s="64"/>
-      <c r="EE4" s="62">
+      <c r="DY4" s="65"/>
+      <c r="DZ4" s="65"/>
+      <c r="EA4" s="65"/>
+      <c r="EB4" s="65"/>
+      <c r="EC4" s="65"/>
+      <c r="ED4" s="66"/>
+      <c r="EE4" s="64">
         <f t="shared" ref="EE4" si="6">EE5</f>
         <v>43500</v>
       </c>
-      <c r="EF4" s="63"/>
-      <c r="EG4" s="63"/>
-      <c r="EH4" s="63"/>
-      <c r="EI4" s="63"/>
-      <c r="EJ4" s="63"/>
-      <c r="EK4" s="64"/>
-      <c r="EL4" s="62">
+      <c r="EF4" s="65"/>
+      <c r="EG4" s="65"/>
+      <c r="EH4" s="65"/>
+      <c r="EI4" s="65"/>
+      <c r="EJ4" s="65"/>
+      <c r="EK4" s="66"/>
+      <c r="EL4" s="64">
         <f t="shared" ref="EL4" si="7">EL5</f>
         <v>43507</v>
       </c>
-      <c r="EM4" s="63"/>
-      <c r="EN4" s="63"/>
-      <c r="EO4" s="63"/>
-      <c r="EP4" s="63"/>
-      <c r="EQ4" s="63"/>
-      <c r="ER4" s="64"/>
-      <c r="ES4" s="62">
+      <c r="EM4" s="65"/>
+      <c r="EN4" s="65"/>
+      <c r="EO4" s="65"/>
+      <c r="EP4" s="65"/>
+      <c r="EQ4" s="65"/>
+      <c r="ER4" s="66"/>
+      <c r="ES4" s="64">
         <f t="shared" ref="ES4" si="8">ES5</f>
         <v>43514</v>
       </c>
-      <c r="ET4" s="63"/>
-      <c r="EU4" s="63"/>
-      <c r="EV4" s="63"/>
-      <c r="EW4" s="63"/>
-      <c r="EX4" s="63"/>
-      <c r="EY4" s="64"/>
-      <c r="EZ4" s="62">
+      <c r="ET4" s="65"/>
+      <c r="EU4" s="65"/>
+      <c r="EV4" s="65"/>
+      <c r="EW4" s="65"/>
+      <c r="EX4" s="65"/>
+      <c r="EY4" s="66"/>
+      <c r="EZ4" s="64">
         <f t="shared" ref="EZ4" si="9">EZ5</f>
         <v>43521</v>
       </c>
-      <c r="FA4" s="63"/>
-      <c r="FB4" s="63"/>
-      <c r="FC4" s="63"/>
-      <c r="FD4" s="63"/>
-      <c r="FE4" s="63"/>
-      <c r="FF4" s="64"/>
-      <c r="FG4" s="62">
+      <c r="FA4" s="65"/>
+      <c r="FB4" s="65"/>
+      <c r="FC4" s="65"/>
+      <c r="FD4" s="65"/>
+      <c r="FE4" s="65"/>
+      <c r="FF4" s="66"/>
+      <c r="FG4" s="64">
         <f t="shared" ref="FG4" si="10">FG5</f>
         <v>43528</v>
       </c>
-      <c r="FH4" s="63"/>
-      <c r="FI4" s="63"/>
-      <c r="FJ4" s="63"/>
-      <c r="FK4" s="63"/>
-      <c r="FL4" s="63"/>
-      <c r="FM4" s="64"/>
-      <c r="FN4" s="62">
+      <c r="FH4" s="65"/>
+      <c r="FI4" s="65"/>
+      <c r="FJ4" s="65"/>
+      <c r="FK4" s="65"/>
+      <c r="FL4" s="65"/>
+      <c r="FM4" s="66"/>
+      <c r="FN4" s="64">
         <f t="shared" ref="FN4" si="11">FN5</f>
         <v>43535</v>
       </c>
-      <c r="FO4" s="63"/>
-      <c r="FP4" s="63"/>
-      <c r="FQ4" s="63"/>
-      <c r="FR4" s="63"/>
-      <c r="FS4" s="63"/>
-      <c r="FT4" s="64"/>
-      <c r="FU4" s="62">
+      <c r="FO4" s="65"/>
+      <c r="FP4" s="65"/>
+      <c r="FQ4" s="65"/>
+      <c r="FR4" s="65"/>
+      <c r="FS4" s="65"/>
+      <c r="FT4" s="66"/>
+      <c r="FU4" s="64">
         <f t="shared" ref="FU4" si="12">FU5</f>
         <v>43542</v>
       </c>
-      <c r="FV4" s="63"/>
-      <c r="FW4" s="63"/>
-      <c r="FX4" s="63"/>
-      <c r="FY4" s="63"/>
-      <c r="FZ4" s="63"/>
-      <c r="GA4" s="64"/>
-      <c r="GB4" s="62">
+      <c r="FV4" s="65"/>
+      <c r="FW4" s="65"/>
+      <c r="FX4" s="65"/>
+      <c r="FY4" s="65"/>
+      <c r="FZ4" s="65"/>
+      <c r="GA4" s="66"/>
+      <c r="GB4" s="64">
         <f t="shared" ref="GB4" si="13">GB5</f>
         <v>43549</v>
       </c>
-      <c r="GC4" s="63"/>
-      <c r="GD4" s="63"/>
-      <c r="GE4" s="63"/>
-      <c r="GF4" s="63"/>
-      <c r="GG4" s="63"/>
-      <c r="GH4" s="64"/>
+      <c r="GC4" s="65"/>
+      <c r="GD4" s="65"/>
+      <c r="GE4" s="65"/>
+      <c r="GF4" s="65"/>
+      <c r="GG4" s="65"/>
+      <c r="GH4" s="66"/>
     </row>
     <row r="5" spans="1:190" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
       <c r="I5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>43374</v>
@@ -3525,7 +3765,7 @@
       <c r="F8" s="18"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H27" si="116">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H32" si="116">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="35"/>
@@ -3724,11 +3964,11 @@
       <c r="D9" s="19">
         <v>1</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="57">
         <f>Project_Start</f>
         <v>43378</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="57">
         <f>E9</f>
         <v>43378</v>
       </c>
@@ -4130,10 +4370,10 @@
       <c r="D11" s="24">
         <v>1</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="58">
         <v>43392</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="58">
         <v>43392</v>
       </c>
       <c r="G11" s="14"/>
@@ -4335,10 +4575,10 @@
       <c r="D12" s="24">
         <v>0.75</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="59">
         <v>43385</v>
       </c>
-      <c r="F12" s="66">
+      <c r="F12" s="58">
         <v>43441</v>
       </c>
       <c r="G12" s="14"/>
@@ -4737,10 +4977,10 @@
       <c r="D14" s="29">
         <v>0.9</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="60">
         <v>43420</v>
       </c>
-      <c r="F14" s="69">
+      <c r="F14" s="61">
         <v>43441</v>
       </c>
       <c r="G14" s="14"/>
@@ -4942,10 +5182,10 @@
       <c r="D15" s="29">
         <v>0.4</v>
       </c>
-      <c r="E15" s="68">
+      <c r="E15" s="60">
         <v>43420</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="61">
         <v>43441</v>
       </c>
       <c r="G15" s="14"/>
@@ -5346,10 +5586,10 @@
       <c r="D17" s="34">
         <v>1</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="62">
         <v>43385</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="62">
         <v>43385</v>
       </c>
       <c r="G17" s="14"/>
@@ -5551,10 +5791,10 @@
       <c r="D18" s="34">
         <v>1</v>
       </c>
-      <c r="E18" s="70">
+      <c r="E18" s="62">
         <v>43406</v>
       </c>
-      <c r="F18" s="71">
+      <c r="F18" s="63">
         <v>43413</v>
       </c>
       <c r="G18" s="14"/>
@@ -5756,10 +5996,10 @@
       <c r="D19" s="34">
         <v>0.99</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="62">
         <v>43413</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="62">
         <v>43420</v>
       </c>
       <c r="G19" s="14"/>
@@ -5961,10 +6201,10 @@
       <c r="D20" s="34">
         <v>1</v>
       </c>
-      <c r="E20" s="71">
+      <c r="E20" s="63">
         <v>43406</v>
       </c>
-      <c r="F20" s="71">
+      <c r="F20" s="63">
         <v>43406</v>
       </c>
       <c r="G20" s="14"/>
@@ -6166,10 +6406,10 @@
       <c r="D21" s="34">
         <v>0.9</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="62">
         <v>43417</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="62">
         <v>43443</v>
       </c>
       <c r="G21" s="14"/>
@@ -6570,10 +6810,10 @@
       <c r="D23" s="19">
         <v>0.5</v>
       </c>
-      <c r="E23" s="65">
+      <c r="E23" s="57">
         <v>43434</v>
       </c>
-      <c r="F23" s="65">
+      <c r="F23" s="57">
         <v>43443</v>
       </c>
       <c r="G23" s="14"/>
@@ -6972,10 +7212,10 @@
       <c r="D25" s="24">
         <v>0.75</v>
       </c>
-      <c r="E25" s="66">
+      <c r="E25" s="58">
         <v>43427</v>
       </c>
-      <c r="F25" s="66">
+      <c r="F25" s="58">
         <v>43441</v>
       </c>
       <c r="G25" s="14"/>
@@ -7375,10 +7615,10 @@
       <c r="D27" s="29">
         <v>0.3</v>
       </c>
-      <c r="E27" s="68">
+      <c r="E27" s="60">
         <v>43433</v>
       </c>
-      <c r="F27" s="69">
+      <c r="F27" s="61">
         <v>43539</v>
       </c>
       <c r="G27" s="14"/>
@@ -7583,14 +7823,17 @@
       <c r="D28" s="29">
         <v>0.3</v>
       </c>
-      <c r="E28" s="68">
+      <c r="E28" s="60">
         <v>43433</v>
       </c>
-      <c r="F28" s="69">
+      <c r="F28" s="61">
         <v>43539</v>
       </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14">
+        <f t="shared" si="116"/>
+        <v>107</v>
+      </c>
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
@@ -7788,14 +8031,17 @@
       <c r="D29" s="29">
         <v>0.2</v>
       </c>
-      <c r="E29" s="68">
+      <c r="E29" s="60">
         <v>43433</v>
       </c>
-      <c r="F29" s="69">
+      <c r="F29" s="61">
         <v>43539</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14">
+        <f t="shared" si="116"/>
+        <v>107</v>
+      </c>
       <c r="I29" s="35"/>
       <c r="J29" s="35"/>
       <c r="K29" s="35"/>
@@ -7990,14 +8236,17 @@
       <c r="D30" s="29">
         <v>0</v>
       </c>
-      <c r="E30" s="68">
+      <c r="E30" s="60">
         <v>43483</v>
       </c>
-      <c r="F30" s="69">
+      <c r="F30" s="61">
         <v>43539</v>
       </c>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14">
+        <f t="shared" si="116"/>
+        <v>57</v>
+      </c>
       <c r="I30" s="35"/>
       <c r="J30" s="35"/>
       <c r="K30" s="35"/>
@@ -8191,14 +8440,17 @@
       <c r="D31" s="29">
         <v>0</v>
       </c>
-      <c r="E31" s="68">
+      <c r="E31" s="60">
         <v>43483</v>
       </c>
-      <c r="F31" s="69">
+      <c r="F31" s="61">
         <v>43539</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14">
+        <f t="shared" si="116"/>
+        <v>57</v>
+      </c>
       <c r="I31" s="35"/>
       <c r="J31" s="35"/>
       <c r="K31" s="35"/>
@@ -8392,14 +8644,17 @@
       <c r="D32" s="29">
         <v>0</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="60">
         <v>43483</v>
       </c>
-      <c r="F32" s="69">
+      <c r="F32" s="61">
         <v>43539</v>
       </c>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14">
+        <f t="shared" si="116"/>
+        <v>57</v>
+      </c>
       <c r="I32" s="35"/>
       <c r="J32" s="35"/>
       <c r="K32" s="35"/>
@@ -8595,22 +8850,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="GB4:GH4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="FN4:FT4"/>
-    <mergeCell ref="FU4:GA4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="BT4:BZ4"/>
     <mergeCell ref="C3:D3"/>
@@ -8625,6 +8864,22 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="GB4:GH4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="FU4:GA4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D21">
     <cfRule type="dataBar" priority="51">
@@ -8640,16 +8895,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:FZ27 GB5:GG27">
-    <cfRule type="expression" dxfId="17" priority="70">
+  <conditionalFormatting sqref="I5:FZ32 GB5:GG32">
+    <cfRule type="expression" dxfId="29" priority="70">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:FZ27 GB7:GG27">
-    <cfRule type="expression" dxfId="16" priority="64">
+  <conditionalFormatting sqref="I7:FZ32 GB7:GG32">
+    <cfRule type="expression" dxfId="28" priority="64">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="65" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8681,42 +8936,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GA5:GA27 GH5:GH27">
-    <cfRule type="expression" dxfId="14" priority="72">
+  <conditionalFormatting sqref="GA5:GA32 GH5:GH32">
+    <cfRule type="expression" dxfId="26" priority="72">
       <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GA7:GA27 GH7:GH27">
-    <cfRule type="expression" dxfId="13" priority="75">
+  <conditionalFormatting sqref="GA7:GA32 GH7:GH32">
+    <cfRule type="expression" dxfId="25" priority="75">
       <formula>AND(task_start&lt;=GA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="76" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:FU28 FW28:GB28">
-    <cfRule type="expression" dxfId="11" priority="78">
-      <formula>AND(TODAY()&gt;=L$5,TODAY()&lt;M$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:FU28 FW28:GB28">
-    <cfRule type="expression" dxfId="10" priority="83">
-      <formula>AND(task_start&lt;=L$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=L$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="84" stopIfTrue="1">
-      <formula>AND(task_end&gt;=L$5,task_start&lt;M$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FV28 GC28:GH28">
-    <cfRule type="expression" dxfId="8" priority="108">
-      <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FV28 GC28:GH28">
-    <cfRule type="expression" dxfId="7" priority="111">
-      <formula>AND(task_start&lt;=GA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="76" stopIfTrue="1">
       <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8732,32 +8961,6 @@
           <x14:id>{1CCEC6F3-6C81-49E6-91E2-DF7A2EA5F39C}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:FP32 FR29:FW32">
-    <cfRule type="expression" dxfId="5" priority="114">
-      <formula>AND(TODAY()&gt;=Q$5,TODAY()&lt;R$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:FP32 FR29:FW32">
-    <cfRule type="expression" dxfId="4" priority="119">
-      <formula>AND(task_start&lt;=Q$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=Q$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="120" stopIfTrue="1">
-      <formula>AND(task_end&gt;=Q$5,task_start&lt;R$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FQ29:FQ32 FX29:GH32">
-    <cfRule type="expression" dxfId="2" priority="126">
-      <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FQ29:FQ32 FX29:GH32">
-    <cfRule type="expression" dxfId="1" priority="131">
-      <formula>AND(task_start&lt;=GA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="132" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/Gantt Chart (Finished).xlsx
+++ b/Gantt Chart (Finished).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Year 2\COMP1597 - Digital Media Production\CW1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936489A7-8F7A-4987-B254-6EB7F9504CDA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AFE1A3-7E8E-4533-B0B7-62FFCF2163A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,367 +854,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="51">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -1371,15 +1011,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="50"/>
-      <tableStyleElement type="headerRow" dxfId="49"/>
-      <tableStyleElement type="totalRow" dxfId="48"/>
-      <tableStyleElement type="firstColumn" dxfId="47"/>
-      <tableStyleElement type="lastColumn" dxfId="46"/>
-      <tableStyleElement type="firstRowStripe" dxfId="45"/>
-      <tableStyleElement type="secondRowStripe" dxfId="44"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="43"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="42"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1740,9 +1380,9 @@
   </sheetPr>
   <dimension ref="A1:GI41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4573,7 +4213,7 @@
         <v>27</v>
       </c>
       <c r="D12" s="24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E12" s="59">
         <v>43385</v>
@@ -4975,7 +4615,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="29">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E14" s="60">
         <v>43420</v>
@@ -5180,7 +4820,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="29">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="60">
         <v>43420</v>
@@ -5994,7 +5634,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="34">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="E19" s="62">
         <v>43413</v>
@@ -6808,7 +6448,7 @@
         <v>42</v>
       </c>
       <c r="D23" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="57">
         <v>43434</v>
@@ -7210,7 +6850,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="24">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E25" s="58">
         <v>43427</v>
@@ -8850,6 +8490,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="GB4:GH4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="FU4:GA4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="BT4:BZ4"/>
     <mergeCell ref="C3:D3"/>
@@ -8864,22 +8520,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="GB4:GH4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="FN4:FT4"/>
-    <mergeCell ref="FU4:GA4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D21">
     <cfRule type="dataBar" priority="51">
@@ -8896,15 +8536,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:FZ32 GB5:GG32">
-    <cfRule type="expression" dxfId="29" priority="70">
+    <cfRule type="expression" dxfId="5" priority="70">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:FZ32 GB7:GG32">
-    <cfRule type="expression" dxfId="28" priority="64">
+    <cfRule type="expression" dxfId="4" priority="64">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="65" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8937,15 +8577,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GA5:GA32 GH5:GH32">
-    <cfRule type="expression" dxfId="26" priority="72">
+    <cfRule type="expression" dxfId="2" priority="72">
       <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GA7:GA32 GH7:GH32">
-    <cfRule type="expression" dxfId="25" priority="75">
+    <cfRule type="expression" dxfId="1" priority="75">
       <formula>AND(task_start&lt;=GA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="76" stopIfTrue="1">
       <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
